--- a/Phase 2/Sprint2/BurnDown_Chart.xlsx
+++ b/Phase 2/Sprint2/BurnDown_Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dany5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F42857-E703-41D8-AB9F-978DBE275580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637A205-21FE-40F0-834B-98EE81CFC81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -72,16 +72,13 @@
     <t>Ideal Burndown</t>
   </si>
   <si>
-    <t>Submeter Trabalho</t>
+    <t>Estudar codigo</t>
   </si>
   <si>
-    <t>Estudar aplicação</t>
+    <t>Discussão da divisão do trabalho</t>
   </si>
   <si>
-    <t>Brainstorm</t>
-  </si>
-  <si>
-    <t>Escolher 2 ideias a implementar</t>
+    <t>Implementação das 2 funcionalidades</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -606,24 +603,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,17 +628,16 @@
     <xf numFmtId="164" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +648,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -693,12 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,16 +826,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -942,22 +936,22 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,19 +1022,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2209,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T26"/>
+  <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,96 +2214,83 @@
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
     </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="21"/>
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30">
-        <v>44872</v>
-      </c>
-      <c r="F4" s="30">
-        <v>44873</v>
-      </c>
-      <c r="G4" s="30">
-        <v>44874</v>
-      </c>
-      <c r="H4" s="30">
-        <v>44875</v>
-      </c>
-      <c r="I4" s="31">
-        <v>44876</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23"/>
+      <c r="E4" s="28">
+        <v>44886</v>
+      </c>
+      <c r="F4" s="28">
+        <v>44887</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44888</v>
+      </c>
+      <c r="H4" s="28">
+        <v>44889</v>
+      </c>
+      <c r="I4" s="29">
+        <v>44890</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
-    <row r="5" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="52"/>
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2328,27 +2309,26 @@
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="23"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2359,110 +2339,100 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
         <v>1</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
       <c r="I8" s="8">
         <v>1</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="20"/>
@@ -2471,40 +2441,38 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
-      <c r="C11" s="36"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="20"/>
       <c r="E11" s="11"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
       <c r="D12" s="20"/>
@@ -2513,19 +2481,18 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
       <c r="D13" s="20"/>
@@ -2534,19 +2501,18 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="20"/>
@@ -2555,19 +2521,18 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="D15" s="20"/>
       <c r="E15" s="11"/>
@@ -2575,66 +2540,64 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
     </row>
-    <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="46"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="20">
         <v>0</v>
       </c>
       <c r="E16" s="12">
         <f>SUM(E6:E15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" ref="F16:I16" si="0">SUM(F6:F15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="27">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="20">
         <f>SUM(D6:D16)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="13">
         <f>D17-SUM(E6:E15)</f>
@@ -2642,7 +2605,7 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" ref="F17:H17" si="1">E17-SUM(F6:F15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13">
         <f>F17-SUM(G6:G15)</f>
@@ -2650,206 +2613,139 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <f>H17-SUM(I6:I15)</f>
+        <v>-2</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="37">
+        <f>D17</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="38">
+        <f>$D$18-($D$18/5*1)</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="38">
+        <f>$D$18-($D$18/5*2)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="38">
+        <f>$D$18-($D$18/5*3)</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="38">
+        <f>$D$18-($D$18/5*4)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="39">
-        <f>H17-SUM(I6:I15)</f>
-        <v>-1</v>
-      </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="23"/>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="40">
-        <f>D17</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="41">
-        <f>$D$18-($D$18/5*1)</f>
-        <v>4.8</v>
-      </c>
-      <c r="F18" s="41">
-        <f>$D$18-($D$18/5*2)</f>
-        <v>3.6</v>
-      </c>
-      <c r="G18" s="41">
-        <f>$D$18-($D$18/5*3)</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="H18" s="41">
-        <f>$D$18-($D$18/5*4)</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="I18" s="41">
+      <c r="I18" s="38">
         <f>$D$18-($D$18/5*5)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="23"/>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="23"/>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="23"/>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="23"/>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
